--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Psen1-Notch2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Psen1-Notch2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.1662981534737</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H2">
-        <v>16.1662981534737</v>
+        <v>49.167946</v>
       </c>
       <c r="I2">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J2">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.98547382335556</v>
+        <v>2.119550333333333</v>
       </c>
       <c r="N2">
-        <v>1.98547382335556</v>
+        <v>6.358651</v>
       </c>
       <c r="O2">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="P2">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="Q2">
-        <v>32.09776180428336</v>
+        <v>34.73797877787177</v>
       </c>
       <c r="R2">
-        <v>32.09776180428336</v>
+        <v>312.641809000846</v>
       </c>
       <c r="S2">
-        <v>0.002159091314692424</v>
+        <v>0.00223821383518011</v>
       </c>
       <c r="T2">
-        <v>0.002159091314692424</v>
+        <v>0.002238213835180111</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.1662981534737</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H3">
-        <v>16.1662981534737</v>
+        <v>49.167946</v>
       </c>
       <c r="I3">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J3">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.7571201655845</v>
+        <v>22.818859</v>
       </c>
       <c r="N3">
-        <v>22.7571201655845</v>
+        <v>68.456577</v>
       </c>
       <c r="O3">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="P3">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="Q3">
-        <v>367.8983897112678</v>
+        <v>373.9854756978713</v>
       </c>
       <c r="R3">
-        <v>367.8983897112678</v>
+        <v>3365.869281280842</v>
       </c>
       <c r="S3">
-        <v>0.0247470905528661</v>
+        <v>0.02409637795036597</v>
       </c>
       <c r="T3">
-        <v>0.0247470905528661</v>
+        <v>0.02409637795036597</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.1662981534737</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H4">
-        <v>16.1662981534737</v>
+        <v>49.167946</v>
       </c>
       <c r="I4">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J4">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.5000523956459</v>
+        <v>33.691532</v>
       </c>
       <c r="N4">
-        <v>33.5000523956459</v>
+        <v>101.074596</v>
       </c>
       <c r="O4">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="P4">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="Q4">
-        <v>541.5718351850026</v>
+        <v>552.1811420110906</v>
       </c>
       <c r="R4">
-        <v>541.5718351850026</v>
+        <v>4969.630278099816</v>
       </c>
       <c r="S4">
-        <v>0.03642942622478854</v>
+        <v>0.03557775999224367</v>
       </c>
       <c r="T4">
-        <v>0.03642942622478854</v>
+        <v>0.03557775999224368</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.1662981534737</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H5">
-        <v>16.1662981534737</v>
+        <v>49.167946</v>
       </c>
       <c r="I5">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J5">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.9603138341104</v>
+        <v>49.94141999999999</v>
       </c>
       <c r="N5">
-        <v>47.9603138341104</v>
+        <v>149.82426</v>
       </c>
       <c r="O5">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="P5">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="Q5">
-        <v>775.3407329763982</v>
+        <v>818.5056805744398</v>
       </c>
       <c r="R5">
-        <v>775.3407329763982</v>
+        <v>7366.551125169959</v>
       </c>
       <c r="S5">
-        <v>0.0521541487130484</v>
+        <v>0.05273740162459331</v>
       </c>
       <c r="T5">
-        <v>0.0521541487130484</v>
+        <v>0.05273740162459332</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.1662981534737</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H6">
-        <v>16.1662981534737</v>
+        <v>49.167946</v>
       </c>
       <c r="I6">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J6">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7485319989558</v>
+        <v>11.94279566666667</v>
       </c>
       <c r="N6">
-        <v>10.7485319989558</v>
+        <v>35.828387</v>
       </c>
       <c r="O6">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="P6">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="Q6">
-        <v>173.7639730072721</v>
+        <v>195.7342441425669</v>
       </c>
       <c r="R6">
-        <v>173.7639730072721</v>
+        <v>1761.608197283102</v>
       </c>
       <c r="S6">
-        <v>0.01168842510621362</v>
+        <v>0.01261141576658118</v>
       </c>
       <c r="T6">
-        <v>0.01168842510621362</v>
+        <v>0.01261141576658118</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.0370462263</v>
+        <v>23.071008</v>
       </c>
       <c r="H7">
-        <v>23.0370462263</v>
+        <v>69.213024</v>
       </c>
       <c r="I7">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J7">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.98547382335556</v>
+        <v>2.119550333333333</v>
       </c>
       <c r="N7">
-        <v>1.98547382335556</v>
+        <v>6.358651</v>
       </c>
       <c r="O7">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="P7">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="Q7">
-        <v>45.73945224975063</v>
+        <v>48.900162696736</v>
       </c>
       <c r="R7">
-        <v>45.73945224975063</v>
+        <v>440.101464270624</v>
       </c>
       <c r="S7">
-        <v>0.003076714653606993</v>
+        <v>0.003150702042575726</v>
       </c>
       <c r="T7">
-        <v>0.003076714653606993</v>
+        <v>0.003150702042575727</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.0370462263</v>
+        <v>23.071008</v>
       </c>
       <c r="H8">
-        <v>23.0370462263</v>
+        <v>69.213024</v>
       </c>
       <c r="I8">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J8">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.7571201655845</v>
+        <v>22.818859</v>
       </c>
       <c r="N8">
-        <v>22.7571201655845</v>
+        <v>68.456577</v>
       </c>
       <c r="O8">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="P8">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="Q8">
-        <v>524.256829232034</v>
+        <v>526.4540785398721</v>
       </c>
       <c r="R8">
-        <v>524.256829232034</v>
+        <v>4738.086706858848</v>
       </c>
       <c r="S8">
-        <v>0.03526471327081823</v>
+        <v>0.03392013132685573</v>
       </c>
       <c r="T8">
-        <v>0.03526471327081823</v>
+        <v>0.03392013132685573</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.0370462263</v>
+        <v>23.071008</v>
       </c>
       <c r="H9">
-        <v>23.0370462263</v>
+        <v>69.213024</v>
       </c>
       <c r="I9">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J9">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.5000523956459</v>
+        <v>33.691532</v>
       </c>
       <c r="N9">
-        <v>33.5000523956459</v>
+        <v>101.074596</v>
       </c>
       <c r="O9">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="P9">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="Q9">
-        <v>771.7422556219667</v>
+        <v>777.2976043042562</v>
       </c>
       <c r="R9">
-        <v>771.7422556219667</v>
+        <v>6995.678438738304</v>
       </c>
       <c r="S9">
-        <v>0.05191209316881935</v>
+        <v>0.05008231086589221</v>
       </c>
       <c r="T9">
-        <v>0.05191209316881935</v>
+        <v>0.05008231086589221</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.0370462263</v>
+        <v>23.071008</v>
       </c>
       <c r="H10">
-        <v>23.0370462263</v>
+        <v>69.213024</v>
       </c>
       <c r="I10">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J10">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.9603138341104</v>
+        <v>49.94141999999999</v>
       </c>
       <c r="N10">
-        <v>47.9603138341104</v>
+        <v>149.82426</v>
       </c>
       <c r="O10">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="P10">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="Q10">
-        <v>1104.863966824257</v>
+        <v>1152.19890035136</v>
       </c>
       <c r="R10">
-        <v>1104.863966824257</v>
+        <v>10369.79010316224</v>
       </c>
       <c r="S10">
-        <v>0.07431989212308666</v>
+        <v>0.07423769633046327</v>
       </c>
       <c r="T10">
-        <v>0.07431989212308666</v>
+        <v>0.07423769633046327</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.0370462263</v>
+        <v>23.071008</v>
       </c>
       <c r="H11">
-        <v>23.0370462263</v>
+        <v>69.213024</v>
       </c>
       <c r="I11">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J11">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.7485319989558</v>
+        <v>11.94279566666667</v>
       </c>
       <c r="N11">
-        <v>10.7485319989558</v>
+        <v>35.828387</v>
       </c>
       <c r="O11">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="P11">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="Q11">
-        <v>247.6144285248095</v>
+        <v>275.532334368032</v>
       </c>
       <c r="R11">
-        <v>247.6144285248095</v>
+        <v>2479.791009312288</v>
       </c>
       <c r="S11">
-        <v>0.01665605736874464</v>
+        <v>0.01775291207255967</v>
       </c>
       <c r="T11">
-        <v>0.01665605736874464</v>
+        <v>0.01775291207255967</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>37.2026539397823</v>
+        <v>37.292974</v>
       </c>
       <c r="H12">
-        <v>37.2026539397823</v>
+        <v>111.878922</v>
       </c>
       <c r="I12">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J12">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.98547382335556</v>
+        <v>2.119550333333333</v>
       </c>
       <c r="N12">
-        <v>1.98547382335556</v>
+        <v>6.358651</v>
       </c>
       <c r="O12">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="P12">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="Q12">
-        <v>73.86489555679336</v>
+        <v>79.04433547269133</v>
       </c>
       <c r="R12">
-        <v>73.86489555679336</v>
+        <v>711.399019254222</v>
       </c>
       <c r="S12">
-        <v>0.004968603587682342</v>
+        <v>0.00509293089211895</v>
       </c>
       <c r="T12">
-        <v>0.004968603587682342</v>
+        <v>0.005092930892118951</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>37.2026539397823</v>
+        <v>37.292974</v>
       </c>
       <c r="H13">
-        <v>37.2026539397823</v>
+        <v>111.878922</v>
       </c>
       <c r="I13">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J13">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.7571201655845</v>
+        <v>22.818859</v>
       </c>
       <c r="N13">
-        <v>22.7571201655845</v>
+        <v>68.456577</v>
       </c>
       <c r="O13">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="P13">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="Q13">
-        <v>846.6252661862815</v>
+        <v>850.983115396666</v>
       </c>
       <c r="R13">
-        <v>846.6252661862815</v>
+        <v>7658.848038569994</v>
       </c>
       <c r="S13">
-        <v>0.0569491813842929</v>
+        <v>0.05482996562824719</v>
       </c>
       <c r="T13">
-        <v>0.0569491813842929</v>
+        <v>0.05482996562824719</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.2026539397823</v>
+        <v>37.292974</v>
       </c>
       <c r="H14">
-        <v>37.2026539397823</v>
+        <v>111.878922</v>
       </c>
       <c r="I14">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J14">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.5000523956459</v>
+        <v>33.691532</v>
       </c>
       <c r="N14">
-        <v>33.5000523956459</v>
+        <v>101.074596</v>
       </c>
       <c r="O14">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="P14">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="Q14">
-        <v>1246.290856239789</v>
+        <v>1256.457426896168</v>
       </c>
       <c r="R14">
-        <v>1246.290856239789</v>
+        <v>11308.11684206551</v>
       </c>
       <c r="S14">
-        <v>0.08383312767087786</v>
+        <v>0.0809552108421806</v>
       </c>
       <c r="T14">
-        <v>0.08383312767087786</v>
+        <v>0.0809552108421806</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.2026539397823</v>
+        <v>37.292974</v>
       </c>
       <c r="H15">
-        <v>37.2026539397823</v>
+        <v>111.878922</v>
       </c>
       <c r="I15">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J15">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>47.9603138341104</v>
+        <v>49.94141999999999</v>
       </c>
       <c r="N15">
-        <v>47.9603138341104</v>
+        <v>149.82426</v>
       </c>
       <c r="O15">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="P15">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="Q15">
-        <v>1784.250958413763</v>
+        <v>1862.46407758308</v>
       </c>
       <c r="R15">
-        <v>1784.250958413763</v>
+        <v>16762.17669824772</v>
       </c>
       <c r="S15">
-        <v>0.1200196066950905</v>
+        <v>0.1200010194210787</v>
       </c>
       <c r="T15">
-        <v>0.1200196066950905</v>
+        <v>0.1200010194210787</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.2026539397823</v>
+        <v>37.292974</v>
       </c>
       <c r="H16">
-        <v>37.2026539397823</v>
+        <v>111.878922</v>
       </c>
       <c r="I16">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J16">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.7485319989558</v>
+        <v>11.94279566666667</v>
       </c>
       <c r="N16">
-        <v>10.7485319989558</v>
+        <v>35.828387</v>
       </c>
       <c r="O16">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="P16">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="Q16">
-        <v>399.8739163178291</v>
+        <v>445.3823682843127</v>
       </c>
       <c r="R16">
-        <v>399.8739163178291</v>
+        <v>4008.441314558814</v>
       </c>
       <c r="S16">
-        <v>0.02689795958229886</v>
+        <v>0.02869657400085223</v>
       </c>
       <c r="T16">
-        <v>0.02689795958229886</v>
+        <v>0.02869657400085223</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.1249604601643</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H17">
-        <v>43.1249604601643</v>
+        <v>131.494309</v>
       </c>
       <c r="I17">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J17">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.98547382335556</v>
+        <v>2.119550333333333</v>
       </c>
       <c r="N17">
-        <v>1.98547382335556</v>
+        <v>6.358651</v>
       </c>
       <c r="O17">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="P17">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="Q17">
-        <v>85.62348012689976</v>
+        <v>92.90293549079543</v>
       </c>
       <c r="R17">
-        <v>85.62348012689976</v>
+        <v>836.1264194171589</v>
       </c>
       <c r="S17">
-        <v>0.005759557734990057</v>
+        <v>0.005985858787984521</v>
       </c>
       <c r="T17">
-        <v>0.005759557734990057</v>
+        <v>0.005985858787984522</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.1249604601643</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H18">
-        <v>43.1249604601643</v>
+        <v>131.494309</v>
       </c>
       <c r="I18">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J18">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>22.7571201655845</v>
+        <v>22.818859</v>
       </c>
       <c r="N18">
-        <v>22.7571201655845</v>
+        <v>68.456577</v>
       </c>
       <c r="O18">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="P18">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="Q18">
-        <v>981.3999073280393</v>
+        <v>1000.18336545781</v>
       </c>
       <c r="R18">
-        <v>981.3999073280393</v>
+        <v>9001.650289120291</v>
       </c>
       <c r="S18">
-        <v>0.0660149461221671</v>
+        <v>0.06444313472005132</v>
       </c>
       <c r="T18">
-        <v>0.0660149461221671</v>
+        <v>0.06444313472005132</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.1249604601643</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H19">
-        <v>43.1249604601643</v>
+        <v>131.494309</v>
       </c>
       <c r="I19">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J19">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.5000523956459</v>
+        <v>33.691532</v>
       </c>
       <c r="N19">
-        <v>33.5000523956459</v>
+        <v>101.074596</v>
       </c>
       <c r="O19">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="P19">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="Q19">
-        <v>1444.688434975662</v>
+        <v>1476.748239830463</v>
       </c>
       <c r="R19">
-        <v>1444.688434975662</v>
+        <v>13290.73415847416</v>
       </c>
       <c r="S19">
-        <v>0.09717855940897073</v>
+        <v>0.09514883875661445</v>
       </c>
       <c r="T19">
-        <v>0.09717855940897073</v>
+        <v>0.09514883875661445</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.1249604601643</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H20">
-        <v>43.1249604601643</v>
+        <v>131.494309</v>
       </c>
       <c r="I20">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J20">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.9603138341104</v>
+        <v>49.94141999999999</v>
       </c>
       <c r="N20">
-        <v>47.9603138341104</v>
+        <v>149.82426</v>
       </c>
       <c r="O20">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="P20">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="Q20">
-        <v>2068.286637753082</v>
+        <v>2189.00417112626</v>
       </c>
       <c r="R20">
-        <v>2068.286637753082</v>
+        <v>19701.03754013633</v>
       </c>
       <c r="S20">
-        <v>0.139125579630638</v>
+        <v>0.1410404287598545</v>
       </c>
       <c r="T20">
-        <v>0.139125579630638</v>
+        <v>0.1410404287598545</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.1249604601643</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H21">
-        <v>43.1249604601643</v>
+        <v>131.494309</v>
       </c>
       <c r="I21">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J21">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.7485319989558</v>
+        <v>11.94279566666667</v>
       </c>
       <c r="N21">
-        <v>10.7485319989558</v>
+        <v>35.828387</v>
       </c>
       <c r="O21">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="P21">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="Q21">
-        <v>463.5300174597796</v>
+        <v>523.4698879055092</v>
       </c>
       <c r="R21">
-        <v>463.5300174597796</v>
+        <v>4711.228991149583</v>
       </c>
       <c r="S21">
-        <v>0.03117985736510398</v>
+        <v>0.03372785598443135</v>
       </c>
       <c r="T21">
-        <v>0.03117985736510398</v>
+        <v>0.03372785598443135</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.58438373012581</v>
+        <v>8.200153666666667</v>
       </c>
       <c r="H22">
-        <v>7.58438373012581</v>
+        <v>24.600461</v>
       </c>
       <c r="I22">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="J22">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.98547382335556</v>
+        <v>2.119550333333333</v>
       </c>
       <c r="N22">
-        <v>1.98547382335556</v>
+        <v>6.358651</v>
       </c>
       <c r="O22">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="P22">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="Q22">
-        <v>15.0585953624486</v>
+        <v>17.38063843756789</v>
       </c>
       <c r="R22">
-        <v>15.0585953624486</v>
+        <v>156.425745938111</v>
       </c>
       <c r="S22">
-        <v>0.001012933009372374</v>
+        <v>0.001119857481172972</v>
       </c>
       <c r="T22">
-        <v>0.001012933009372374</v>
+        <v>0.001119857481172972</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.58438373012581</v>
+        <v>8.200153666666667</v>
       </c>
       <c r="H23">
-        <v>7.58438373012581</v>
+        <v>24.600461</v>
       </c>
       <c r="I23">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="J23">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.7571201655845</v>
+        <v>22.818859</v>
       </c>
       <c r="N23">
-        <v>22.7571201655845</v>
+        <v>68.456577</v>
       </c>
       <c r="O23">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="P23">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="Q23">
-        <v>172.5987319283771</v>
+        <v>187.1181502979997</v>
       </c>
       <c r="R23">
-        <v>172.5987319283771</v>
+        <v>1684.063352681997</v>
       </c>
       <c r="S23">
-        <v>0.01161004388112055</v>
+        <v>0.0120562694648509</v>
       </c>
       <c r="T23">
-        <v>0.01161004388112055</v>
+        <v>0.0120562694648509</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.58438373012581</v>
+        <v>8.200153666666667</v>
       </c>
       <c r="H24">
-        <v>7.58438373012581</v>
+        <v>24.600461</v>
       </c>
       <c r="I24">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="J24">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>33.5000523956459</v>
+        <v>33.691532</v>
       </c>
       <c r="N24">
-        <v>33.5000523956459</v>
+        <v>101.074596</v>
       </c>
       <c r="O24">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="P24">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="Q24">
-        <v>254.077252347899</v>
+        <v>276.2757396654173</v>
       </c>
       <c r="R24">
-        <v>254.077252347899</v>
+        <v>2486.481656988756</v>
       </c>
       <c r="S24">
-        <v>0.01709078633426889</v>
+        <v>0.01780081065734474</v>
       </c>
       <c r="T24">
-        <v>0.01709078633426889</v>
+        <v>0.01780081065734474</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.58438373012581</v>
+        <v>8.200153666666667</v>
       </c>
       <c r="H25">
-        <v>7.58438373012581</v>
+        <v>24.600461</v>
       </c>
       <c r="I25">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="J25">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>47.9603138341104</v>
+        <v>49.94141999999999</v>
       </c>
       <c r="N25">
-        <v>47.9603138341104</v>
+        <v>149.82426</v>
       </c>
       <c r="O25">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="P25">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="Q25">
-        <v>363.7494239351548</v>
+        <v>409.52731833154</v>
       </c>
       <c r="R25">
-        <v>363.7494239351548</v>
+        <v>3685.74586498386</v>
       </c>
       <c r="S25">
-        <v>0.02446800579839681</v>
+        <v>0.02638638579506951</v>
       </c>
       <c r="T25">
-        <v>0.02446800579839681</v>
+        <v>0.02638638579506951</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.58438373012581</v>
+        <v>8.200153666666667</v>
       </c>
       <c r="H26">
-        <v>7.58438373012581</v>
+        <v>24.600461</v>
       </c>
       <c r="I26">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="J26">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.7485319989558</v>
+        <v>11.94279566666667</v>
       </c>
       <c r="N26">
-        <v>10.7485319989558</v>
+        <v>35.828387</v>
       </c>
       <c r="O26">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="P26">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="Q26">
-        <v>81.52099121561702</v>
+        <v>97.93275967626745</v>
       </c>
       <c r="R26">
-        <v>81.52099121561702</v>
+        <v>881.3948370864069</v>
       </c>
       <c r="S26">
-        <v>0.005483599298044135</v>
+        <v>0.006309937000837201</v>
       </c>
       <c r="T26">
-        <v>0.005483599298044135</v>
+        <v>0.006309937000837201</v>
       </c>
     </row>
   </sheetData>
